--- a/data/trans_dic/P19C11_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,37</t>
+          <t>0,0; 4,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,43</t>
+          <t>0,07; 2,31</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,61</t>
+          <t>1,39; 5,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,77</t>
+          <t>0,72; 3,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,76</t>
+          <t>1,31; 3,7</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,31</t>
+          <t>2,09; 5,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,21</t>
+          <t>1,23; 3,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,96</t>
+          <t>1,87; 3,81</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,78</t>
+          <t>3,18; 6,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,04</t>
+          <t>4,45; 7,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 6,47</t>
+          <t>4,04; 6,36</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,34</t>
+          <t>3,91; 7,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,57</t>
+          <t>5,39; 8,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 7,41</t>
+          <t>5,02; 7,45</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,84; 9,19</t>
+          <t>5,88; 9,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,76</t>
+          <t>3,02; 5,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,77</t>
+          <t>4,46; 6,73</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,28</t>
+          <t>3,88; 5,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 4,61</t>
+          <t>3,47; 4,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 4,72</t>
+          <t>3,82; 4,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C11_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,05</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,6</t>
+          <t>0,0; 4,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,31</t>
+          <t>0,05; 2,43</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,42</t>
+          <t>1,32; 5,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,82</t>
+          <t>0,76; 3,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,7</t>
+          <t>1,26; 3,76</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,6</t>
+          <t>1,97; 5,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,31</t>
+          <t>1,23; 3,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,81</t>
+          <t>1,9; 3,96</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,76</t>
+          <t>3,27; 6,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,13</t>
+          <t>4,42; 7,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 6,36</t>
+          <t>4,16; 6,47</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,6</t>
+          <t>3,88; 7,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,39; 8,56</t>
+          <t>5,42; 8,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,45</t>
+          <t>4,97; 7,41</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,27</t>
+          <t>5,84; 9,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 5,72</t>
+          <t>3,0; 5,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,46; 6,73</t>
+          <t>4,4; 6,77</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 5,25</t>
+          <t>3,84; 5,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 4,63</t>
+          <t>3,44; 4,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,82; 4,74</t>
+          <t>3,8; 4,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C11_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,57%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,37</t>
+          <t>0,0; 4,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,43</t>
+          <t>0,05; 2,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,61</t>
+          <t>1,26; 5,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 3,77</t>
+          <t>0,62; 3,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,76</t>
+          <t>1,15; 3,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,31</t>
+          <t>1,97; 5,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,21</t>
+          <t>1,26; 3,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 3,96</t>
+          <t>1,93; 4,0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,78</t>
+          <t>1,6; 6,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,42; 7,04</t>
+          <t>4,21; 6,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 6,47</t>
+          <t>2,71; 5,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,34</t>
+          <t>3,95; 7,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,57</t>
+          <t>5,46; 8,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 7,41</t>
+          <t>5,02; 7,47</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,84; 9,19</t>
+          <t>6,51; 11,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,0; 5,76</t>
+          <t>1,19; 6,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,77</t>
+          <t>2,67; 7,53</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,28</t>
+          <t>4,03; 8,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,44; 4,61</t>
+          <t>3,34; 6,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 4,72</t>
+          <t>4,3; 6,99</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 4,94</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3,12; 4,46</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 4,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P19C11_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,48</t>
+          <t>0,0; 4,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,32</t>
+          <t>0,02; 1,98</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,44</t>
+          <t>1,2; 5,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,42</t>
+          <t>0,6; 3,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,52</t>
+          <t>1,17; 3,49</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,29</t>
+          <t>2,09; 5,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,26</t>
+          <t>1,25; 3,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,0</t>
+          <t>1,91; 4,0</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,02</t>
+          <t>1,62; 6,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,91</t>
+          <t>4,25; 6,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,9</t>
+          <t>2,6; 5,8</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,42</t>
+          <t>4,01; 7,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,64</t>
+          <t>5,49; 8,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,47</t>
+          <t>5,16; 7,52</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,51; 11,46</t>
+          <t>6,38; 11,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,29</t>
+          <t>1,23; 6,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,53</t>
+          <t>2,87; 7,56</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,92</t>
+          <t>4,08; 8,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,5</t>
+          <t>3,45; 6,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,99</t>
+          <t>4,15; 6,74</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,94</t>
+          <t>3,32; 5,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,12; 4,46</t>
+          <t>3,18; 4,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,42; 4,55</t>
+          <t>3,41; 4,54</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2661</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3889</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6252</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12460</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>168; 13614</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10614</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8175</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18789</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4830; 21329</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3016; 16419</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10582; 31517</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18113</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10908</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29021</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10942; 28364</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6654; 16405</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20174; 42269</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>32181</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>38348</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>70529</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>13941; 52899</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29778; 47788</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>40602; 90699</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>30277</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>36767</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>67045</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>21921; 42243</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>29361; 47047</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>55758; 81324</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>31053</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>22391</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>53444</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>22933; 40686</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7394; 37058</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>27496; 72511</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>17209</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>19662</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>36871</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11232; 23774</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>14081; 26233</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>28411; 46096</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>140674</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>138912</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>279587</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>111338; 168678</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>113688; 160699</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>236545; 314939</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>